--- a/_files/requirements/master_data/master-user_detail.xlsx
+++ b/_files/requirements/master_data/master-user_detail.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3EABF07C-CF46-468D-8DB3-4A0EB1DB02A0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F870CD82-2D13-475E-915F-E9CAD29E5BF8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="158">
   <si>
     <t>id</t>
   </si>
@@ -479,6 +479,21 @@
   </si>
   <si>
     <t>Yadimala@xyz.com</t>
+  </si>
+  <si>
+    <t>Taleev Aalam</t>
+  </si>
+  <si>
+    <t>TaleevAalam@xyz.com</t>
+  </si>
+  <si>
+    <t>Yadimala 2</t>
+  </si>
+  <si>
+    <t>Yadimala2@xyz.com</t>
+  </si>
+  <si>
+    <t>Ramesh</t>
   </si>
 </sst>
 </file>
@@ -809,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3282,10 +3297,10 @@
         <v>9317596808</v>
       </c>
       <c r="C71" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="E71">
         <v>818876471</v>
@@ -3317,7 +3332,7 @@
         <v>9317596809</v>
       </c>
       <c r="C72" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>136</v>
@@ -3352,10 +3367,10 @@
         <v>9317596810</v>
       </c>
       <c r="C73" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="E73">
         <v>818876473</v>

--- a/_files/requirements/master_data/master-user_detail.xlsx
+++ b/_files/requirements/master_data/master-user_detail.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F870CD82-2D13-475E-915F-E9CAD29E5BF8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F11B9CB-D7F1-4BEC-B068-AF2AE8A513CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="159">
   <si>
     <t>id</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>Ramesh</t>
+  </si>
+  <si>
+    <t>Reeba Thomas</t>
   </si>
 </sst>
 </file>
@@ -825,7 +828,7 @@
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3402,7 +3405,7 @@
         <v>9317596811</v>
       </c>
       <c r="C74" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>136</v>

--- a/_files/requirements/master_data/master-user_detail.xlsx
+++ b/_files/requirements/master_data/master-user_detail.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F11B9CB-D7F1-4BEC-B068-AF2AE8A513CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C526F2-9669-4CC9-ABE5-C8C212C12136}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="160">
   <si>
     <t>id</t>
   </si>
@@ -497,6 +497,9 @@
   </si>
   <si>
     <t>Reeba Thomas</t>
+  </si>
+  <si>
+    <t>Usha</t>
   </si>
 </sst>
 </file>
@@ -828,7 +831,7 @@
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3440,7 +3443,7 @@
         <v>9317596812</v>
       </c>
       <c r="C75" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>136</v>

--- a/_files/requirements/master_data/master-user_detail.xlsx
+++ b/_files/requirements/master_data/master-user_detail.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C526F2-9669-4CC9-ABE5-C8C212C12136}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A5608191-5A0C-4119-B219-53C3680A06B0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="177">
   <si>
     <t>id</t>
   </si>
@@ -481,25 +481,76 @@
     <t>Yadimala@xyz.com</t>
   </si>
   <si>
-    <t>Taleev Aalam</t>
-  </si>
-  <si>
-    <t>TaleevAalam@xyz.com</t>
-  </si>
-  <si>
-    <t>Yadimala 2</t>
-  </si>
-  <si>
-    <t>Yadimala2@xyz.com</t>
-  </si>
-  <si>
-    <t>Ramesh</t>
-  </si>
-  <si>
-    <t>Reeba Thomas</t>
-  </si>
-  <si>
-    <t>Usha</t>
+    <t>Ankit - Technoforte</t>
+  </si>
+  <si>
+    <t>ankit.vaishnav@technoforte.co.in</t>
+  </si>
+  <si>
+    <t>Jane - Technoforte</t>
+  </si>
+  <si>
+    <t>Piyush - Technoforte</t>
+  </si>
+  <si>
+    <t>Suchana - Technoforte</t>
+  </si>
+  <si>
+    <t>Swapna - Technoforte</t>
+  </si>
+  <si>
+    <t>Niyati - Technoforte</t>
+  </si>
+  <si>
+    <t>Hemant - Technoforte</t>
+  </si>
+  <si>
+    <t>Channa - Technoforte</t>
+  </si>
+  <si>
+    <t>Sanjeev - Technoforte</t>
+  </si>
+  <si>
+    <t>Alok - Technoforte</t>
+  </si>
+  <si>
+    <t>Nikhilesh - Technoforte</t>
+  </si>
+  <si>
+    <t>Chandra - Technoforte</t>
+  </si>
+  <si>
+    <t>Jane.rose@technoforte.co.in</t>
+  </si>
+  <si>
+    <t>piyush.singh@technoforte.co.in</t>
+  </si>
+  <si>
+    <t>suchana.kankonkar@technoforte.co.in</t>
+  </si>
+  <si>
+    <t>swapna.p@technoforte.co.in</t>
+  </si>
+  <si>
+    <t>niyati.swami@technoforte.co.in</t>
+  </si>
+  <si>
+    <t>Hemant.vadher@technoforte.co.in</t>
+  </si>
+  <si>
+    <t>Channakeshava.p@technoforte.co.in</t>
+  </si>
+  <si>
+    <t>sanjeev.shrivastava@technoforte.co.in</t>
+  </si>
+  <si>
+    <t>alok.tiwari@technoforte.co.in</t>
+  </si>
+  <si>
+    <t>nikhilesh.kumar@technoforte.co.in</t>
+  </si>
+  <si>
+    <t>chandra.mishra@technoforte.co.in</t>
   </si>
 </sst>
 </file>
@@ -521,12 +572,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -541,13 +598,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3303,10 +3361,10 @@
         <v>9317596808</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E71">
         <v>818876471</v>
@@ -3338,7 +3396,7 @@
         <v>9317596809</v>
       </c>
       <c r="C72" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>136</v>
@@ -3373,10 +3431,10 @@
         <v>9317596810</v>
       </c>
       <c r="C73" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="E73">
         <v>818876473</v>
@@ -3408,7 +3466,7 @@
         <v>9317596811</v>
       </c>
       <c r="C74" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>136</v>
@@ -3443,7 +3501,7 @@
         <v>9317596812</v>
       </c>
       <c r="C75" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>136</v>
@@ -3471,17 +3529,17 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A76">
+      <c r="A76" s="2">
         <v>110075</v>
       </c>
       <c r="B76">
         <v>9317596813</v>
       </c>
       <c r="C76" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="E76">
         <v>818876476</v>
@@ -3498,7 +3556,7 @@
       <c r="I76" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J76" t="s">
+      <c r="J76" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K76" t="s">
@@ -3513,10 +3571,10 @@
         <v>9317596814</v>
       </c>
       <c r="C77" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="E77">
         <v>818876477</v>
@@ -3548,10 +3606,10 @@
         <v>9317596815</v>
       </c>
       <c r="C78" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="E78">
         <v>818876478</v>
@@ -3583,10 +3641,10 @@
         <v>9317596816</v>
       </c>
       <c r="C79" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="E79">
         <v>818876479</v>
@@ -3618,10 +3676,10 @@
         <v>9317596817</v>
       </c>
       <c r="C80" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="E80">
         <v>818876480</v>
@@ -3653,10 +3711,10 @@
         <v>9317596818</v>
       </c>
       <c r="C81" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="E81">
         <v>818876481</v>
@@ -3688,10 +3746,10 @@
         <v>9317596819</v>
       </c>
       <c r="C82" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="E82">
         <v>818876482</v>
@@ -3723,10 +3781,10 @@
         <v>9317596820</v>
       </c>
       <c r="C83" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E83">
         <v>818876483</v>
@@ -3758,10 +3816,10 @@
         <v>9317596821</v>
       </c>
       <c r="C84" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="E84">
         <v>818876484</v>
@@ -3793,10 +3851,10 @@
         <v>9317596822</v>
       </c>
       <c r="C85" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="E85">
         <v>818876485</v>
@@ -3828,10 +3886,10 @@
         <v>9317596823</v>
       </c>
       <c r="C86" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="E86">
         <v>818876486</v>
@@ -3856,17 +3914,17 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A87">
+      <c r="A87" s="4">
         <v>110086</v>
       </c>
       <c r="B87">
         <v>9317596824</v>
       </c>
       <c r="C87" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="E87">
         <v>818876487</v>
